--- a/medicine/Enfance/Les_Nouvelles_Fabulettes/Les_Nouvelles_Fabulettes.xlsx
+++ b/medicine/Enfance/Les_Nouvelles_Fabulettes/Les_Nouvelles_Fabulettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nouvelles Fabulettes est un album d'Anne Sylvestre pour les enfants, paru dans sa maison de production en 1976. 
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paru en 1976, c'est le premier album complet pour enfants d'Anne Sylvestre depuis qu'elle a créé sa propre maison de production. 
-Dans certaines des chansons de cet album pour enfants, Anne Sylvestre a voulu aborder auprès de ce public le sujet de la différence. « Un petit sapin était au milieu des autres arbres et était mal vu  jusqu’au moment où tous les autres ont perdu leurs feuilles, et à ce moment-là, le sapin était tout fier. Une autre chanson s’appelait L’oiseau debout et était l’histoire d’un oiseau de nuit, par rapport aux autres oiseaux, etc.[1] »
-Il est réédité chez EPM Musique en format CD. Dans cette dernière présentation, c'est le troisième album de la collection des Fabulettes[2].
+Dans certaines des chansons de cet album pour enfants, Anne Sylvestre a voulu aborder auprès de ce public le sujet de la différence. « Un petit sapin était au milieu des autres arbres et était mal vu  jusqu’au moment où tous les autres ont perdu leurs feuilles, et à ce moment-là, le sapin était tout fier. Une autre chanson s’appelait L’oiseau debout et était l’histoire d’un oiseau de nuit, par rapport aux autres oiseaux, etc. »
+Il est réédité chez EPM Musique en format CD. Dans cette dernière présentation, c'est le troisième album de la collection des Fabulettes.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les chansons sont écrites et composées par Anne Sylvestre.
 </t>
@@ -575,14 +591,16 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Production : Anne Sylvestre
-Direction musicale : François Rauber[3]
+Direction musicale : François Rauber
 Paroles et musique : Anne Sylvestre
 Prise de son : Thierry Alazard (Studio S.T.A.)
 Chœurs : Les Bécasses
-Illustration de pochette : René Biosca[3]</t>
+Illustration de pochette : René Biosca</t>
         </is>
       </c>
     </row>
